--- a/EXR.xlsx
+++ b/EXR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakj.forsgren/Desktop/Forsgrens-map/SOK-1016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54DDA75D-B65F-AB42-A620-990CAAE121F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D8FE5F-CFDF-9D4A-9A53-584869992069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,112 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="890">
-  <si>
-    <t>Dataflow</t>
-  </si>
-  <si>
-    <t>NB:EXR(1.0)</t>
-  </si>
-  <si>
-    <t>Dataflow Name</t>
-  </si>
-  <si>
-    <t>Valutakurser</t>
-  </si>
-  <si>
-    <t>DataStructure</t>
-  </si>
-  <si>
-    <t>NB:DSD_EXR(1.0)</t>
-  </si>
-  <si>
-    <t>DataStructure Name</t>
-  </si>
-  <si>
-    <t>FREQ</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>FREQ Name</t>
-  </si>
-  <si>
-    <t>Virkedag</t>
-  </si>
-  <si>
-    <t>BASE_CUR</t>
-  </si>
-  <si>
-    <t>I44</t>
-  </si>
-  <si>
-    <t>BASE_CUR Name</t>
-  </si>
-  <si>
-    <t>Importveid kursindeks</t>
-  </si>
-  <si>
-    <t>QUOTE_CUR</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>QUOTE_CUR Name</t>
-  </si>
-  <si>
-    <t>Norske kroner</t>
-  </si>
-  <si>
-    <t>TENOR</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>TENOR Name</t>
-  </si>
-  <si>
-    <t>Spot</t>
-  </si>
-  <si>
-    <t>DECIMALS</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>CALCULATED</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>UNIT_MULT</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>UNIT_MULT Name</t>
-  </si>
-  <si>
-    <t>Enheter</t>
-  </si>
-  <si>
-    <t>COLLECTION</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>COLLECTION Name</t>
-  </si>
-  <si>
-    <t>ECB concertation tidspunkt 14:15 CET</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
   <si>
     <t>2020-01-02</t>
   </si>
@@ -3063,2723 +2958,2641 @@
   <dimension ref="A1:AFW21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="ADB12" sqref="ADB12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:855" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:855" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="20" spans="1:855" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="AK20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="AL20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="AM20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="AN20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="AO20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="AP20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="AQ20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="AR20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="AS20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="AT20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="AU20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="AV20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="AW20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="AX20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="AY20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="AZ20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="BA20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="BB20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="BC20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="BD20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="BE20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="BF20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="BG20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="BH20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="BI20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="BJ20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="BK20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="BL20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="BM20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AE20" s="1" t="s">
+      <c r="BN20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="BO20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AG20" s="1" t="s">
+      <c r="BP20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AH20" s="1" t="s">
+      <c r="BQ20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AI20" s="1" t="s">
+      <c r="BR20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AJ20" s="1" t="s">
+      <c r="BS20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AK20" s="1" t="s">
+      <c r="BT20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="BU20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AM20" s="1" t="s">
+      <c r="BV20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AN20" s="1" t="s">
+      <c r="BW20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AO20" s="1" t="s">
+      <c r="BX20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AP20" s="1" t="s">
+      <c r="BY20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AQ20" s="1" t="s">
+      <c r="BZ20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AR20" s="1" t="s">
+      <c r="CA20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AS20" s="1" t="s">
+      <c r="CB20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AT20" s="1" t="s">
+      <c r="CC20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU20" s="1" t="s">
+      <c r="CD20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AV20" s="1" t="s">
+      <c r="CE20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AW20" s="1" t="s">
+      <c r="CF20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AX20" s="1" t="s">
+      <c r="CG20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AY20" s="1" t="s">
+      <c r="CH20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AZ20" s="1" t="s">
+      <c r="CI20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BA20" s="1" t="s">
+      <c r="CJ20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BB20" s="1" t="s">
+      <c r="CK20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BC20" s="1" t="s">
+      <c r="CL20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BD20" s="1" t="s">
+      <c r="CM20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BE20" s="1" t="s">
+      <c r="CN20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BF20" s="1" t="s">
+      <c r="CO20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BG20" s="1" t="s">
+      <c r="CP20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BH20" s="1" t="s">
+      <c r="CQ20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BI20" s="1" t="s">
+      <c r="CR20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ20" s="1" t="s">
+      <c r="CS20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK20" s="1" t="s">
+      <c r="CT20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BL20" s="1" t="s">
+      <c r="CU20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BM20" s="1" t="s">
+      <c r="CV20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BN20" s="1" t="s">
+      <c r="CW20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BO20" s="1" t="s">
+      <c r="CX20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BP20" s="1" t="s">
+      <c r="CY20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BQ20" s="1" t="s">
+      <c r="CZ20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BR20" s="1" t="s">
+      <c r="DA20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BS20" s="1" t="s">
+      <c r="DB20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BT20" s="1" t="s">
+      <c r="DC20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BU20" s="1" t="s">
+      <c r="DD20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BV20" s="1" t="s">
+      <c r="DE20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BW20" s="1" t="s">
+      <c r="DF20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BX20" s="1" t="s">
+      <c r="DG20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BY20" s="1" t="s">
+      <c r="DH20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BZ20" s="1" t="s">
+      <c r="DI20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CA20" s="1" t="s">
+      <c r="DJ20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="CB20" s="1" t="s">
+      <c r="DK20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CC20" s="1" t="s">
+      <c r="DL20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="CD20" s="1" t="s">
+      <c r="DM20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="CE20" s="1" t="s">
+      <c r="DN20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="CF20" s="1" t="s">
+      <c r="DO20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CG20" s="1" t="s">
+      <c r="DP20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="CH20" s="1" t="s">
+      <c r="DQ20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="CI20" s="1" t="s">
+      <c r="DR20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="CJ20" s="1" t="s">
+      <c r="DS20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CK20" s="1" t="s">
+      <c r="DT20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CL20" s="1" t="s">
+      <c r="DU20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CM20" s="1" t="s">
+      <c r="DV20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CN20" s="1" t="s">
+      <c r="DW20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CO20" s="1" t="s">
+      <c r="DX20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="CP20" s="1" t="s">
+      <c r="DY20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="CQ20" s="1" t="s">
+      <c r="DZ20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CR20" s="1" t="s">
+      <c r="EA20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CS20" s="1" t="s">
+      <c r="EB20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="CT20" s="1" t="s">
+      <c r="EC20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="CU20" s="1" t="s">
+      <c r="ED20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="CV20" s="1" t="s">
+      <c r="EE20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="CW20" s="1" t="s">
+      <c r="EF20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="CX20" s="1" t="s">
+      <c r="EG20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CY20" s="1" t="s">
+      <c r="EH20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="CZ20" s="1" t="s">
+      <c r="EI20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="DA20" s="1" t="s">
+      <c r="EJ20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="DB20" s="1" t="s">
+      <c r="EK20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="DC20" s="1" t="s">
+      <c r="EL20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="DD20" s="1" t="s">
+      <c r="EM20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="DE20" s="1" t="s">
+      <c r="EN20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="DF20" s="1" t="s">
+      <c r="EO20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="DG20" s="1" t="s">
+      <c r="EP20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="DH20" s="1" t="s">
+      <c r="EQ20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="DI20" s="1" t="s">
+      <c r="ER20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="DJ20" s="1" t="s">
+      <c r="ES20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="DK20" s="1" t="s">
+      <c r="ET20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="DL20" s="1" t="s">
+      <c r="EU20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="DM20" s="1" t="s">
+      <c r="EV20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="DN20" s="1" t="s">
+      <c r="EW20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="DO20" s="1" t="s">
+      <c r="EX20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="DP20" s="1" t="s">
+      <c r="EY20" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="DQ20" s="1" t="s">
+      <c r="EZ20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="DR20" s="1" t="s">
+      <c r="FA20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="DS20" s="1" t="s">
+      <c r="FB20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="DT20" s="1" t="s">
+      <c r="FC20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="DU20" s="1" t="s">
+      <c r="FD20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="DV20" s="1" t="s">
+      <c r="FE20" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="DW20" s="1" t="s">
+      <c r="FF20" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="DX20" s="1" t="s">
+      <c r="FG20" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="DY20" s="1" t="s">
+      <c r="FH20" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="DZ20" s="1" t="s">
+      <c r="FI20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="EA20" s="1" t="s">
+      <c r="FJ20" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="EB20" s="1" t="s">
+      <c r="FK20" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="EC20" s="1" t="s">
+      <c r="FL20" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="ED20" s="1" t="s">
+      <c r="FM20" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="EE20" s="1" t="s">
+      <c r="FN20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="EF20" s="1" t="s">
+      <c r="FO20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="EG20" s="1" t="s">
+      <c r="FP20" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="EH20" s="1" t="s">
+      <c r="FQ20" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="EI20" s="1" t="s">
+      <c r="FR20" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="EJ20" s="1" t="s">
+      <c r="FS20" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="EK20" s="1" t="s">
+      <c r="FT20" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="EL20" s="1" t="s">
+      <c r="FU20" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="EM20" s="1" t="s">
+      <c r="FV20" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="EN20" s="1" t="s">
+      <c r="FW20" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="EO20" s="1" t="s">
+      <c r="FX20" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="EP20" s="1" t="s">
+      <c r="FY20" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="EQ20" s="1" t="s">
+      <c r="FZ20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="ER20" s="1" t="s">
+      <c r="GA20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="ES20" s="1" t="s">
+      <c r="GB20" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="ET20" s="1" t="s">
+      <c r="GC20" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="EU20" s="1" t="s">
+      <c r="GD20" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="EV20" s="1" t="s">
+      <c r="GE20" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="EW20" s="1" t="s">
+      <c r="GF20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="EX20" s="1" t="s">
+      <c r="GG20" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="EY20" s="1" t="s">
+      <c r="GH20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="EZ20" s="1" t="s">
+      <c r="GI20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="FA20" s="1" t="s">
+      <c r="GJ20" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="FB20" s="1" t="s">
+      <c r="GK20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="FC20" s="1" t="s">
+      <c r="GL20" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="FD20" s="1" t="s">
+      <c r="GM20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="FE20" s="1" t="s">
+      <c r="GN20" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="FF20" s="1" t="s">
+      <c r="GO20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="FG20" s="1" t="s">
+      <c r="GP20" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="FH20" s="1" t="s">
+      <c r="GQ20" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="FI20" s="1" t="s">
+      <c r="GR20" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="FJ20" s="1" t="s">
+      <c r="GS20" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="FK20" s="1" t="s">
+      <c r="GT20" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="FL20" s="1" t="s">
+      <c r="GU20" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="FM20" s="1" t="s">
+      <c r="GV20" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="FN20" s="1" t="s">
+      <c r="GW20" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="FO20" s="1" t="s">
+      <c r="GX20" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="FP20" s="1" t="s">
+      <c r="GY20" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="FQ20" s="1" t="s">
+      <c r="GZ20" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="FR20" s="1" t="s">
+      <c r="HA20" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="FS20" s="1" t="s">
+      <c r="HB20" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="FT20" s="1" t="s">
+      <c r="HC20" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="FU20" s="1" t="s">
+      <c r="HD20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="FV20" s="1" t="s">
+      <c r="HE20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="FW20" s="1" t="s">
+      <c r="HF20" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="FX20" s="1" t="s">
+      <c r="HG20" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="FY20" s="1" t="s">
+      <c r="HH20" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="FZ20" s="1" t="s">
+      <c r="HI20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="GA20" s="1" t="s">
+      <c r="HJ20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="GB20" s="1" t="s">
+      <c r="HK20" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="GC20" s="1" t="s">
+      <c r="HL20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="GD20" s="1" t="s">
+      <c r="HM20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="GE20" s="1" t="s">
+      <c r="HN20" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="GF20" s="1" t="s">
+      <c r="HO20" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="GG20" s="1" t="s">
+      <c r="HP20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="GH20" s="1" t="s">
+      <c r="HQ20" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="GI20" s="1" t="s">
+      <c r="HR20" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="GJ20" s="1" t="s">
+      <c r="HS20" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="GK20" s="1" t="s">
+      <c r="HT20" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="GL20" s="1" t="s">
+      <c r="HU20" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="GM20" s="1" t="s">
+      <c r="HV20" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="GN20" s="1" t="s">
+      <c r="HW20" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="GO20" s="1" t="s">
+      <c r="HX20" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="GP20" s="1" t="s">
+      <c r="HY20" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="GQ20" s="1" t="s">
+      <c r="HZ20" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="GR20" s="1" t="s">
+      <c r="IA20" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="GS20" s="1" t="s">
+      <c r="IB20" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="GT20" s="1" t="s">
+      <c r="IC20" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="GU20" s="1" t="s">
+      <c r="ID20" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="GV20" s="1" t="s">
+      <c r="IE20" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="GW20" s="1" t="s">
+      <c r="IF20" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="GX20" s="1" t="s">
+      <c r="IG20" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="GY20" s="1" t="s">
+      <c r="IH20" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="GZ20" s="1" t="s">
+      <c r="II20" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="HA20" s="1" t="s">
+      <c r="IJ20" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="HB20" s="1" t="s">
+      <c r="IK20" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="HC20" s="1" t="s">
+      <c r="IL20" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="HD20" s="1" t="s">
+      <c r="IM20" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="HE20" s="1" t="s">
+      <c r="IN20" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="HF20" s="1" t="s">
+      <c r="IO20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="HG20" s="1" t="s">
+      <c r="IP20" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="HH20" s="1" t="s">
+      <c r="IQ20" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="HI20" s="1" t="s">
+      <c r="IR20" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="HJ20" s="1" t="s">
+      <c r="IS20" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="HK20" s="1" t="s">
+      <c r="IT20" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="HL20" s="1" t="s">
+      <c r="IU20" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="HM20" s="1" t="s">
+      <c r="IV20" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="HN20" s="1" t="s">
+      <c r="IW20" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="HO20" s="1" t="s">
+      <c r="IX20" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="HP20" s="1" t="s">
+      <c r="IY20" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="HQ20" s="1" t="s">
+      <c r="IZ20" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="HR20" s="1" t="s">
+      <c r="JA20" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="HS20" s="1" t="s">
+      <c r="JB20" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="HT20" s="1" t="s">
+      <c r="JC20" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="HU20" s="1" t="s">
+      <c r="JD20" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="HV20" s="1" t="s">
+      <c r="JE20" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="HW20" s="1" t="s">
+      <c r="JF20" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="HX20" s="1" t="s">
+      <c r="JG20" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="HY20" s="1" t="s">
+      <c r="JH20" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="HZ20" s="1" t="s">
+      <c r="JI20" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="IA20" s="1" t="s">
+      <c r="JJ20" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="IB20" s="1" t="s">
+      <c r="JK20" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="IC20" s="1" t="s">
+      <c r="JL20" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="ID20" s="1" t="s">
+      <c r="JM20" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="IE20" s="1" t="s">
+      <c r="JN20" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="IF20" s="1" t="s">
+      <c r="JO20" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="IG20" s="1" t="s">
+      <c r="JP20" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="IH20" s="1" t="s">
+      <c r="JQ20" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="II20" s="1" t="s">
+      <c r="JR20" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="IJ20" s="1" t="s">
+      <c r="JS20" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="IK20" s="1" t="s">
+      <c r="JT20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="IL20" s="1" t="s">
+      <c r="JU20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="IM20" s="1" t="s">
+      <c r="JV20" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="IN20" s="1" t="s">
+      <c r="JW20" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="IO20" s="1" t="s">
+      <c r="JX20" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="IP20" s="1" t="s">
+      <c r="JY20" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="IQ20" s="1" t="s">
+      <c r="JZ20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="IR20" s="1" t="s">
+      <c r="KA20" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="IS20" s="1" t="s">
+      <c r="KB20" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="IT20" s="1" t="s">
+      <c r="KC20" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="IU20" s="1" t="s">
+      <c r="KD20" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="IV20" s="1" t="s">
+      <c r="KE20" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="IW20" s="1" t="s">
+      <c r="KF20" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="IX20" s="1" t="s">
+      <c r="KG20" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="IY20" s="1" t="s">
+      <c r="KH20" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="IZ20" s="1" t="s">
+      <c r="KI20" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="JA20" s="1" t="s">
+      <c r="KJ20" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="JB20" s="1" t="s">
+      <c r="KK20" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="JC20" s="1" t="s">
+      <c r="KL20" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="JD20" s="1" t="s">
+      <c r="KM20" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="JE20" s="1" t="s">
+      <c r="KN20" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="JF20" s="1" t="s">
+      <c r="KO20" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="JG20" s="1" t="s">
+      <c r="KP20" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="JH20" s="1" t="s">
+      <c r="KQ20" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="JI20" s="1" t="s">
+      <c r="KR20" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="JJ20" s="1" t="s">
+      <c r="KS20" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="JK20" s="1" t="s">
+      <c r="KT20" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="JL20" s="1" t="s">
+      <c r="KU20" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="JM20" s="1" t="s">
+      <c r="KV20" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="JN20" s="1" t="s">
+      <c r="KW20" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="JO20" s="1" t="s">
+      <c r="KX20" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="JP20" s="1" t="s">
+      <c r="KY20" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="JQ20" s="1" t="s">
+      <c r="KZ20" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="JR20" s="1" t="s">
+      <c r="LA20" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="JS20" s="1" t="s">
+      <c r="LB20" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="JT20" s="1" t="s">
+      <c r="LC20" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="JU20" s="1" t="s">
+      <c r="LD20" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="JV20" s="1" t="s">
+      <c r="LE20" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="JW20" s="1" t="s">
+      <c r="LF20" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="JX20" s="1" t="s">
+      <c r="LG20" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="JY20" s="1" t="s">
+      <c r="LH20" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="JZ20" s="1" t="s">
+      <c r="LI20" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="KA20" s="1" t="s">
+      <c r="LJ20" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="KB20" s="1" t="s">
+      <c r="LK20" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="KC20" s="1" t="s">
+      <c r="LL20" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="KD20" s="1" t="s">
+      <c r="LM20" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="KE20" s="1" t="s">
+      <c r="LN20" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="KF20" s="1" t="s">
+      <c r="LO20" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="KG20" s="1" t="s">
+      <c r="LP20" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="KH20" s="1" t="s">
+      <c r="LQ20" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="KI20" s="1" t="s">
+      <c r="LR20" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="KJ20" s="1" t="s">
+      <c r="LS20" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="KK20" s="1" t="s">
+      <c r="LT20" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="KL20" s="1" t="s">
+      <c r="LU20" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="KM20" s="1" t="s">
+      <c r="LV20" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="KN20" s="1" t="s">
+      <c r="LW20" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="KO20" s="1" t="s">
+      <c r="LX20" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="KP20" s="1" t="s">
+      <c r="LY20" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="KQ20" s="1" t="s">
+      <c r="LZ20" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="KR20" s="1" t="s">
+      <c r="MA20" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="KS20" s="1" t="s">
+      <c r="MB20" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="KT20" s="1" t="s">
+      <c r="MC20" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="KU20" s="1" t="s">
+      <c r="MD20" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="KV20" s="1" t="s">
+      <c r="ME20" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="KW20" s="1" t="s">
+      <c r="MF20" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="KX20" s="1" t="s">
+      <c r="MG20" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="KY20" s="1" t="s">
+      <c r="MH20" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="KZ20" s="1" t="s">
+      <c r="MI20" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="LA20" s="1" t="s">
+      <c r="MJ20" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="LB20" s="1" t="s">
+      <c r="MK20" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="LC20" s="1" t="s">
+      <c r="ML20" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="LD20" s="1" t="s">
+      <c r="MM20" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="LE20" s="1" t="s">
+      <c r="MN20" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="LF20" s="1" t="s">
+      <c r="MO20" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="LG20" s="1" t="s">
+      <c r="MP20" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="LH20" s="1" t="s">
+      <c r="MQ20" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="LI20" s="1" t="s">
+      <c r="MR20" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="LJ20" s="1" t="s">
+      <c r="MS20" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="LK20" s="1" t="s">
+      <c r="MT20" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="LL20" s="1" t="s">
+      <c r="MU20" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="LM20" s="1" t="s">
+      <c r="MV20" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="LN20" s="1" t="s">
+      <c r="MW20" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="LO20" s="1" t="s">
+      <c r="MX20" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="LP20" s="1" t="s">
+      <c r="MY20" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="LQ20" s="1" t="s">
+      <c r="MZ20" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="LR20" s="1" t="s">
+      <c r="NA20" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="LS20" s="1" t="s">
+      <c r="NB20" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="LT20" s="1" t="s">
+      <c r="NC20" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="LU20" s="1" t="s">
+      <c r="ND20" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="LV20" s="1" t="s">
+      <c r="NE20" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="LW20" s="1" t="s">
+      <c r="NF20" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="LX20" s="1" t="s">
+      <c r="NG20" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="LY20" s="1" t="s">
+      <c r="NH20" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="LZ20" s="1" t="s">
+      <c r="NI20" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="MA20" s="1" t="s">
+      <c r="NJ20" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="MB20" s="1" t="s">
+      <c r="NK20" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="MC20" s="1" t="s">
+      <c r="NL20" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="MD20" s="1" t="s">
+      <c r="NM20" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="ME20" s="1" t="s">
+      <c r="NN20" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="MF20" s="1" t="s">
+      <c r="NO20" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="MG20" s="1" t="s">
+      <c r="NP20" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="MH20" s="1" t="s">
+      <c r="NQ20" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="MI20" s="1" t="s">
+      <c r="NR20" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="MJ20" s="1" t="s">
+      <c r="NS20" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="MK20" s="1" t="s">
+      <c r="NT20" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="ML20" s="1" t="s">
+      <c r="NU20" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="MM20" s="1" t="s">
+      <c r="NV20" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="MN20" s="1" t="s">
+      <c r="NW20" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="MO20" s="1" t="s">
+      <c r="NX20" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="MP20" s="1" t="s">
+      <c r="NY20" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="MQ20" s="1" t="s">
+      <c r="NZ20" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="MR20" s="1" t="s">
+      <c r="OA20" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="MS20" s="1" t="s">
+      <c r="OB20" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="MT20" s="1" t="s">
+      <c r="OC20" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="MU20" s="1" t="s">
+      <c r="OD20" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="MV20" s="1" t="s">
+      <c r="OE20" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="MW20" s="1" t="s">
+      <c r="OF20" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="MX20" s="1" t="s">
+      <c r="OG20" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="MY20" s="1" t="s">
+      <c r="OH20" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="MZ20" s="1" t="s">
+      <c r="OI20" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="NA20" s="1" t="s">
+      <c r="OJ20" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="NB20" s="1" t="s">
+      <c r="OK20" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="NC20" s="1" t="s">
+      <c r="OL20" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="ND20" s="1" t="s">
+      <c r="OM20" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="NE20" s="1" t="s">
+      <c r="ON20" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="NF20" s="1" t="s">
+      <c r="OO20" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="NG20" s="1" t="s">
+      <c r="OP20" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="NH20" s="1" t="s">
+      <c r="OQ20" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="NI20" s="1" t="s">
+      <c r="OR20" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="NJ20" s="1" t="s">
+      <c r="OS20" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="NK20" s="1" t="s">
+      <c r="OT20" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="NL20" s="1" t="s">
+      <c r="OU20" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="NM20" s="1" t="s">
+      <c r="OV20" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="NN20" s="1" t="s">
+      <c r="OW20" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="NO20" s="1" t="s">
+      <c r="OX20" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="NP20" s="1" t="s">
+      <c r="OY20" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="NQ20" s="1" t="s">
+      <c r="OZ20" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="NR20" s="1" t="s">
+      <c r="PA20" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="NS20" s="1" t="s">
+      <c r="PB20" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="NT20" s="1" t="s">
+      <c r="PC20" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="NU20" s="1" t="s">
+      <c r="PD20" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="NV20" s="1" t="s">
+      <c r="PE20" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="NW20" s="1" t="s">
+      <c r="PF20" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="NX20" s="1" t="s">
+      <c r="PG20" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="NY20" s="1" t="s">
+      <c r="PH20" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="NZ20" s="1" t="s">
+      <c r="PI20" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="OA20" s="1" t="s">
+      <c r="PJ20" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="OB20" s="1" t="s">
+      <c r="PK20" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="OC20" s="1" t="s">
+      <c r="PL20" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="OD20" s="1" t="s">
+      <c r="PM20" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="OE20" s="1" t="s">
+      <c r="PN20" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="OF20" s="1" t="s">
+      <c r="PO20" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="OG20" s="1" t="s">
+      <c r="PP20" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="OH20" s="1" t="s">
+      <c r="PQ20" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="OI20" s="1" t="s">
+      <c r="PR20" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="OJ20" s="1" t="s">
+      <c r="PS20" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="OK20" s="1" t="s">
+      <c r="PT20" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="OL20" s="1" t="s">
+      <c r="PU20" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="OM20" s="1" t="s">
+      <c r="PV20" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="ON20" s="1" t="s">
+      <c r="PW20" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="OO20" s="1" t="s">
+      <c r="PX20" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="OP20" s="1" t="s">
+      <c r="PY20" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="OQ20" s="1" t="s">
+      <c r="PZ20" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="OR20" s="1" t="s">
+      <c r="QA20" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="OS20" s="1" t="s">
+      <c r="QB20" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="OT20" s="1" t="s">
+      <c r="QC20" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="OU20" s="1" t="s">
+      <c r="QD20" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="OV20" s="1" t="s">
+      <c r="QE20" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="OW20" s="1" t="s">
+      <c r="QF20" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="OX20" s="1" t="s">
+      <c r="QG20" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="OY20" s="1" t="s">
+      <c r="QH20" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="OZ20" s="1" t="s">
+      <c r="QI20" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="PA20" s="1" t="s">
+      <c r="QJ20" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="PB20" s="1" t="s">
+      <c r="QK20" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="PC20" s="1" t="s">
+      <c r="QL20" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="PD20" s="1" t="s">
+      <c r="QM20" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="PE20" s="1" t="s">
+      <c r="QN20" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="PF20" s="1" t="s">
+      <c r="QO20" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="PG20" s="1" t="s">
+      <c r="QP20" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="PH20" s="1" t="s">
+      <c r="QQ20" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="PI20" s="1" t="s">
+      <c r="QR20" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="PJ20" s="1" t="s">
+      <c r="QS20" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="PK20" s="1" t="s">
+      <c r="QT20" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="PL20" s="1" t="s">
+      <c r="QU20" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="PM20" s="1" t="s">
+      <c r="QV20" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="PN20" s="1" t="s">
+      <c r="QW20" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="PO20" s="1" t="s">
+      <c r="QX20" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="PP20" s="1" t="s">
+      <c r="QY20" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="PQ20" s="1" t="s">
+      <c r="QZ20" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="PR20" s="1" t="s">
+      <c r="RA20" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="PS20" s="1" t="s">
+      <c r="RB20" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="PT20" s="1" t="s">
+      <c r="RC20" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="PU20" s="1" t="s">
+      <c r="RD20" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="PV20" s="1" t="s">
+      <c r="RE20" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="PW20" s="1" t="s">
+      <c r="RF20" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="PX20" s="1" t="s">
+      <c r="RG20" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="PY20" s="1" t="s">
+      <c r="RH20" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="PZ20" s="1" t="s">
+      <c r="RI20" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="QA20" s="1" t="s">
+      <c r="RJ20" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="QB20" s="1" t="s">
+      <c r="RK20" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="QC20" s="1" t="s">
+      <c r="RL20" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="QD20" s="1" t="s">
+      <c r="RM20" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="QE20" s="1" t="s">
+      <c r="RN20" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="QF20" s="1" t="s">
+      <c r="RO20" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="QG20" s="1" t="s">
+      <c r="RP20" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="QH20" s="1" t="s">
+      <c r="RQ20" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="QI20" s="1" t="s">
+      <c r="RR20" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="QJ20" s="1" t="s">
+      <c r="RS20" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="QK20" s="1" t="s">
+      <c r="RT20" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="QL20" s="1" t="s">
+      <c r="RU20" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="QM20" s="1" t="s">
+      <c r="RV20" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="QN20" s="1" t="s">
+      <c r="RW20" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="QO20" s="1" t="s">
+      <c r="RX20" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="QP20" s="1" t="s">
+      <c r="RY20" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="QQ20" s="1" t="s">
+      <c r="RZ20" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="QR20" s="1" t="s">
+      <c r="SA20" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="QS20" s="1" t="s">
+      <c r="SB20" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="QT20" s="1" t="s">
+      <c r="SC20" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="QU20" s="1" t="s">
+      <c r="SD20" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="QV20" s="1" t="s">
+      <c r="SE20" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="QW20" s="1" t="s">
+      <c r="SF20" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="QX20" s="1" t="s">
+      <c r="SG20" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="QY20" s="1" t="s">
+      <c r="SH20" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="QZ20" s="1" t="s">
+      <c r="SI20" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="RA20" s="1" t="s">
+      <c r="SJ20" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="RB20" s="1" t="s">
+      <c r="SK20" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="RC20" s="1" t="s">
+      <c r="SL20" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="RD20" s="1" t="s">
+      <c r="SM20" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="RE20" s="1" t="s">
+      <c r="SN20" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="RF20" s="1" t="s">
+      <c r="SO20" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="RG20" s="1" t="s">
+      <c r="SP20" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="RH20" s="1" t="s">
+      <c r="SQ20" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="RI20" s="1" t="s">
+      <c r="SR20" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="RJ20" s="1" t="s">
+      <c r="SS20" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="RK20" s="1" t="s">
+      <c r="ST20" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="RL20" s="1" t="s">
+      <c r="SU20" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="RM20" s="1" t="s">
+      <c r="SV20" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="RN20" s="1" t="s">
+      <c r="SW20" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="RO20" s="1" t="s">
+      <c r="SX20" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="RP20" s="1" t="s">
+      <c r="SY20" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="RQ20" s="1" t="s">
+      <c r="SZ20" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="RR20" s="1" t="s">
+      <c r="TA20" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="RS20" s="1" t="s">
+      <c r="TB20" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="RT20" s="1" t="s">
+      <c r="TC20" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="RU20" s="1" t="s">
+      <c r="TD20" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="RV20" s="1" t="s">
+      <c r="TE20" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="RW20" s="1" t="s">
+      <c r="TF20" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="RX20" s="1" t="s">
+      <c r="TG20" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="RY20" s="1" t="s">
+      <c r="TH20" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="RZ20" s="1" t="s">
+      <c r="TI20" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="SA20" s="1" t="s">
+      <c r="TJ20" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="SB20" s="1" t="s">
+      <c r="TK20" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="SC20" s="1" t="s">
+      <c r="TL20" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="SD20" s="1" t="s">
+      <c r="TM20" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="SE20" s="1" t="s">
+      <c r="TN20" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="SF20" s="1" t="s">
+      <c r="TO20" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="SG20" s="1" t="s">
+      <c r="TP20" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="SH20" s="1" t="s">
+      <c r="TQ20" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="SI20" s="1" t="s">
+      <c r="TR20" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="SJ20" s="1" t="s">
+      <c r="TS20" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="SK20" s="1" t="s">
+      <c r="TT20" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="SL20" s="1" t="s">
+      <c r="TU20" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="SM20" s="1" t="s">
+      <c r="TV20" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="SN20" s="1" t="s">
+      <c r="TW20" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="SO20" s="1" t="s">
+      <c r="TX20" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="SP20" s="1" t="s">
+      <c r="TY20" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="SQ20" s="1" t="s">
+      <c r="TZ20" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="SR20" s="1" t="s">
+      <c r="UA20" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="SS20" s="1" t="s">
+      <c r="UB20" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="ST20" s="1" t="s">
+      <c r="UC20" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="SU20" s="1" t="s">
+      <c r="UD20" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="SV20" s="1" t="s">
+      <c r="UE20" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="SW20" s="1" t="s">
+      <c r="UF20" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="SX20" s="1" t="s">
+      <c r="UG20" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="SY20" s="1" t="s">
+      <c r="UH20" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="SZ20" s="1" t="s">
+      <c r="UI20" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="TA20" s="1" t="s">
+      <c r="UJ20" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="TB20" s="1" t="s">
+      <c r="UK20" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="TC20" s="1" t="s">
+      <c r="UL20" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="TD20" s="1" t="s">
+      <c r="UM20" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="TE20" s="1" t="s">
+      <c r="UN20" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="TF20" s="1" t="s">
+      <c r="UO20" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="TG20" s="1" t="s">
+      <c r="UP20" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="TH20" s="1" t="s">
+      <c r="UQ20" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="TI20" s="1" t="s">
+      <c r="UR20" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="TJ20" s="1" t="s">
+      <c r="US20" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="TK20" s="1" t="s">
+      <c r="UT20" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="TL20" s="1" t="s">
+      <c r="UU20" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="TM20" s="1" t="s">
+      <c r="UV20" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="TN20" s="1" t="s">
+      <c r="UW20" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="TO20" s="1" t="s">
+      <c r="UX20" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="TP20" s="1" t="s">
+      <c r="UY20" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="TQ20" s="1" t="s">
+      <c r="UZ20" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="TR20" s="1" t="s">
+      <c r="VA20" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="TS20" s="1" t="s">
+      <c r="VB20" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="TT20" s="1" t="s">
+      <c r="VC20" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="TU20" s="1" t="s">
+      <c r="VD20" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="TV20" s="1" t="s">
+      <c r="VE20" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="TW20" s="1" t="s">
+      <c r="VF20" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="TX20" s="1" t="s">
+      <c r="VG20" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="TY20" s="1" t="s">
+      <c r="VH20" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="TZ20" s="1" t="s">
+      <c r="VI20" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="UA20" s="1" t="s">
+      <c r="VJ20" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="UB20" s="1" t="s">
+      <c r="VK20" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="UC20" s="1" t="s">
+      <c r="VL20" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="UD20" s="1" t="s">
+      <c r="VM20" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="UE20" s="1" t="s">
+      <c r="VN20" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="UF20" s="1" t="s">
+      <c r="VO20" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="UG20" s="1" t="s">
+      <c r="VP20" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="UH20" s="1" t="s">
+      <c r="VQ20" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="UI20" s="1" t="s">
+      <c r="VR20" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="UJ20" s="1" t="s">
+      <c r="VS20" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="UK20" s="1" t="s">
+      <c r="VT20" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="UL20" s="1" t="s">
+      <c r="VU20" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="UM20" s="1" t="s">
+      <c r="VV20" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="UN20" s="1" t="s">
+      <c r="VW20" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="UO20" s="1" t="s">
+      <c r="VX20" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="UP20" s="1" t="s">
+      <c r="VY20" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="UQ20" s="1" t="s">
+      <c r="VZ20" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="UR20" s="1" t="s">
+      <c r="WA20" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="US20" s="1" t="s">
+      <c r="WB20" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="UT20" s="1" t="s">
+      <c r="WC20" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="UU20" s="1" t="s">
+      <c r="WD20" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="UV20" s="1" t="s">
+      <c r="WE20" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="UW20" s="1" t="s">
+      <c r="WF20" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="UX20" s="1" t="s">
+      <c r="WG20" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="UY20" s="1" t="s">
+      <c r="WH20" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="UZ20" s="1" t="s">
+      <c r="WI20" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="VA20" s="1" t="s">
+      <c r="WJ20" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="VB20" s="1" t="s">
+      <c r="WK20" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="VC20" s="1" t="s">
+      <c r="WL20" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="VD20" s="1" t="s">
+      <c r="WM20" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="VE20" s="1" t="s">
+      <c r="WN20" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="VF20" s="1" t="s">
+      <c r="WO20" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="VG20" s="1" t="s">
+      <c r="WP20" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="VH20" s="1" t="s">
+      <c r="WQ20" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="VI20" s="1" t="s">
+      <c r="WR20" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="VJ20" s="1" t="s">
+      <c r="WS20" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="VK20" s="1" t="s">
+      <c r="WT20" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="VL20" s="1" t="s">
+      <c r="WU20" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="VM20" s="1" t="s">
+      <c r="WV20" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="VN20" s="1" t="s">
+      <c r="WW20" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="VO20" s="1" t="s">
+      <c r="WX20" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="VP20" s="1" t="s">
+      <c r="WY20" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="VQ20" s="1" t="s">
+      <c r="WZ20" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="VR20" s="1" t="s">
+      <c r="XA20" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="VS20" s="1" t="s">
+      <c r="XB20" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="VT20" s="1" t="s">
+      <c r="XC20" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="VU20" s="1" t="s">
+      <c r="XD20" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="VV20" s="1" t="s">
+      <c r="XE20" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="VW20" s="1" t="s">
+      <c r="XF20" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="VX20" s="1" t="s">
+      <c r="XG20" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="VY20" s="1" t="s">
+      <c r="XH20" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="VZ20" s="1" t="s">
+      <c r="XI20" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="WA20" s="1" t="s">
+      <c r="XJ20" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="WB20" s="1" t="s">
+      <c r="XK20" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="WC20" s="1" t="s">
+      <c r="XL20" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="WD20" s="1" t="s">
+      <c r="XM20" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="WE20" s="1" t="s">
+      <c r="XN20" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="WF20" s="1" t="s">
+      <c r="XO20" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="WG20" s="1" t="s">
+      <c r="XP20" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="WH20" s="1" t="s">
+      <c r="XQ20" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="WI20" s="1" t="s">
+      <c r="XR20" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="WJ20" s="1" t="s">
+      <c r="XS20" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="WK20" s="1" t="s">
+      <c r="XT20" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="WL20" s="1" t="s">
+      <c r="XU20" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="WM20" s="1" t="s">
+      <c r="XV20" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="WN20" s="1" t="s">
+      <c r="XW20" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="WO20" s="1" t="s">
+      <c r="XX20" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="WP20" s="1" t="s">
+      <c r="XY20" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="WQ20" s="1" t="s">
+      <c r="XZ20" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="WR20" s="1" t="s">
+      <c r="YA20" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="WS20" s="1" t="s">
+      <c r="YB20" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="WT20" s="1" t="s">
+      <c r="YC20" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="WU20" s="1" t="s">
+      <c r="YD20" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="WV20" s="1" t="s">
+      <c r="YE20" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="WW20" s="1" t="s">
+      <c r="YF20" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="WX20" s="1" t="s">
+      <c r="YG20" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="WY20" s="1" t="s">
+      <c r="YH20" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="WZ20" s="1" t="s">
+      <c r="YI20" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="XA20" s="1" t="s">
+      <c r="YJ20" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="XB20" s="1" t="s">
+      <c r="YK20" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="XC20" s="1" t="s">
+      <c r="YL20" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="XD20" s="1" t="s">
+      <c r="YM20" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="XE20" s="1" t="s">
+      <c r="YN20" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="XF20" s="1" t="s">
+      <c r="YO20" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="XG20" s="1" t="s">
+      <c r="YP20" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="XH20" s="1" t="s">
+      <c r="YQ20" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="XI20" s="1" t="s">
+      <c r="YR20" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="XJ20" s="1" t="s">
+      <c r="YS20" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="XK20" s="1" t="s">
+      <c r="YT20" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="XL20" s="1" t="s">
+      <c r="YU20" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="XM20" s="1" t="s">
+      <c r="YV20" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="XN20" s="1" t="s">
+      <c r="YW20" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="XO20" s="1" t="s">
+      <c r="YX20" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="XP20" s="1" t="s">
+      <c r="YY20" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="XQ20" s="1" t="s">
+      <c r="YZ20" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="XR20" s="1" t="s">
+      <c r="ZA20" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="XS20" s="1" t="s">
+      <c r="ZB20" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="XT20" s="1" t="s">
+      <c r="ZC20" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="XU20" s="1" t="s">
+      <c r="ZD20" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="XV20" s="1" t="s">
+      <c r="ZE20" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="XW20" s="1" t="s">
+      <c r="ZF20" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="XX20" s="1" t="s">
+      <c r="ZG20" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="XY20" s="1" t="s">
+      <c r="ZH20" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="XZ20" s="1" t="s">
+      <c r="ZI20" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="YA20" s="1" t="s">
+      <c r="ZJ20" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="YB20" s="1" t="s">
+      <c r="ZK20" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="YC20" s="1" t="s">
+      <c r="ZL20" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="YD20" s="1" t="s">
+      <c r="ZM20" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="YE20" s="1" t="s">
+      <c r="ZN20" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="YF20" s="1" t="s">
+      <c r="ZO20" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="YG20" s="1" t="s">
+      <c r="ZP20" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="YH20" s="1" t="s">
+      <c r="ZQ20" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="YI20" s="1" t="s">
+      <c r="ZR20" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="YJ20" s="1" t="s">
+      <c r="ZS20" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="YK20" s="1" t="s">
+      <c r="ZT20" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="YL20" s="1" t="s">
+      <c r="ZU20" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="YM20" s="1" t="s">
+      <c r="ZV20" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="YN20" s="1" t="s">
+      <c r="ZW20" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="YO20" s="1" t="s">
+      <c r="ZX20" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="YP20" s="1" t="s">
+      <c r="ZY20" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="YQ20" s="1" t="s">
+      <c r="ZZ20" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="YR20" s="1" t="s">
+      <c r="AAA20" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="YS20" s="1" t="s">
+      <c r="AAB20" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="YT20" s="1" t="s">
+      <c r="AAC20" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="YU20" s="1" t="s">
+      <c r="AAD20" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="YV20" s="1" t="s">
+      <c r="AAE20" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="YW20" s="1" t="s">
+      <c r="AAF20" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="YX20" s="1" t="s">
+      <c r="AAG20" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="YY20" s="1" t="s">
+      <c r="AAH20" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="YZ20" s="1" t="s">
+      <c r="AAI20" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="ZA20" s="1" t="s">
+      <c r="AAJ20" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="ZB20" s="1" t="s">
+      <c r="AAK20" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="ZC20" s="1" t="s">
+      <c r="AAL20" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="ZD20" s="1" t="s">
+      <c r="AAM20" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="ZE20" s="1" t="s">
+      <c r="AAN20" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="ZF20" s="1" t="s">
+      <c r="AAO20" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="ZG20" s="1" t="s">
+      <c r="AAP20" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="ZH20" s="1" t="s">
+      <c r="AAQ20" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="ZI20" s="1" t="s">
+      <c r="AAR20" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="ZJ20" s="1" t="s">
+      <c r="AAS20" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="ZK20" s="1" t="s">
+      <c r="AAT20" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="ZL20" s="1" t="s">
+      <c r="AAU20" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="ZM20" s="1" t="s">
+      <c r="AAV20" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="ZN20" s="1" t="s">
+      <c r="AAW20" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="ZO20" s="1" t="s">
+      <c r="AAX20" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="ZP20" s="1" t="s">
+      <c r="AAY20" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="ZQ20" s="1" t="s">
+      <c r="AAZ20" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="ZR20" s="1" t="s">
+      <c r="ABA20" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="ZS20" s="1" t="s">
+      <c r="ABB20" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="ZT20" s="1" t="s">
+      <c r="ABC20" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="ZU20" s="1" t="s">
+      <c r="ABD20" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="ZV20" s="1" t="s">
+      <c r="ABE20" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="ZW20" s="1" t="s">
+      <c r="ABF20" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="ZX20" s="1" t="s">
+      <c r="ABG20" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="ZY20" s="1" t="s">
+      <c r="ABH20" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="ZZ20" s="1" t="s">
+      <c r="ABI20" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="AAA20" s="1" t="s">
+      <c r="ABJ20" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="AAB20" s="1" t="s">
+      <c r="ABK20" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="AAC20" s="1" t="s">
+      <c r="ABL20" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AAD20" s="1" t="s">
+      <c r="ABM20" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AAE20" s="1" t="s">
+      <c r="ABN20" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AAF20" s="1" t="s">
+      <c r="ABO20" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AAG20" s="1" t="s">
+      <c r="ABP20" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="AAH20" s="1" t="s">
+      <c r="ABQ20" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="AAI20" s="1" t="s">
+      <c r="ABR20" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="AAJ20" s="1" t="s">
+      <c r="ABS20" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="AAK20" s="1" t="s">
+      <c r="ABT20" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="AAL20" s="1" t="s">
+      <c r="ABU20" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="AAM20" s="1" t="s">
+      <c r="ABV20" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="AAN20" s="1" t="s">
+      <c r="ABW20" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="AAO20" s="1" t="s">
+      <c r="ABX20" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="AAP20" s="1" t="s">
+      <c r="ABY20" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="AAQ20" s="1" t="s">
+      <c r="ABZ20" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="AAR20" s="1" t="s">
+      <c r="ACA20" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="AAS20" s="1" t="s">
+      <c r="ACB20" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="AAT20" s="1" t="s">
+      <c r="ACC20" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="AAU20" s="1" t="s">
+      <c r="ACD20" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="AAV20" s="1" t="s">
+      <c r="ACE20" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="AAW20" s="1" t="s">
+      <c r="ACF20" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="AAX20" s="1" t="s">
+      <c r="ACG20" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="AAY20" s="1" t="s">
+      <c r="ACH20" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="AAZ20" s="1" t="s">
+      <c r="ACI20" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="ABA20" s="1" t="s">
+      <c r="ACJ20" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="ABB20" s="1" t="s">
+      <c r="ACK20" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="ABC20" s="1" t="s">
+      <c r="ACL20" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="ABD20" s="1" t="s">
+      <c r="ACM20" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="ABE20" s="1" t="s">
+      <c r="ACN20" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="ABF20" s="1" t="s">
+      <c r="ACO20" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="ABG20" s="1" t="s">
+      <c r="ACP20" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="ABH20" s="1" t="s">
+      <c r="ACQ20" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="ABI20" s="1" t="s">
+      <c r="ACR20" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="ABJ20" s="1" t="s">
+      <c r="ACS20" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="ABK20" s="1" t="s">
+      <c r="ACT20" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="ABL20" s="1" t="s">
+      <c r="ACU20" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="ABM20" s="1" t="s">
+      <c r="ACV20" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="ABN20" s="1" t="s">
+      <c r="ACW20" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="ABO20" s="1" t="s">
+      <c r="ACX20" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="ABP20" s="1" t="s">
+      <c r="ACY20" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="ABQ20" s="1" t="s">
+      <c r="ACZ20" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="ABR20" s="1" t="s">
+      <c r="ADA20" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="ABS20" s="1" t="s">
+      <c r="ADB20" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="ABT20" s="1" t="s">
+      <c r="ADC20" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="ABU20" s="1" t="s">
+      <c r="ADD20" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="ABV20" s="1" t="s">
+      <c r="ADE20" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="ABW20" s="1" t="s">
+      <c r="ADF20" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="ABX20" s="1" t="s">
+      <c r="ADG20" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="ABY20" s="1" t="s">
+      <c r="ADH20" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="ABZ20" s="1" t="s">
+      <c r="ADI20" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="ACA20" s="1" t="s">
+      <c r="ADJ20" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="ACB20" s="1" t="s">
+      <c r="ADK20" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="ACC20" s="1" t="s">
+      <c r="ADL20" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="ACD20" s="1" t="s">
+      <c r="ADM20" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="ACE20" s="1" t="s">
+      <c r="ADN20" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="ACF20" s="1" t="s">
+      <c r="ADO20" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="ACG20" s="1" t="s">
+      <c r="ADP20" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="ACH20" s="1" t="s">
+      <c r="ADQ20" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="ACI20" s="1" t="s">
+      <c r="ADR20" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="ACJ20" s="1" t="s">
+      <c r="ADS20" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="ACK20" s="1" t="s">
+      <c r="ADT20" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="ACL20" s="1" t="s">
+      <c r="ADU20" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="ACM20" s="1" t="s">
+      <c r="ADV20" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="ACN20" s="1" t="s">
+      <c r="ADW20" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="ACO20" s="1" t="s">
+      <c r="ADX20" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="ACP20" s="1" t="s">
+      <c r="ADY20" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="ACQ20" s="1" t="s">
+      <c r="ADZ20" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="ACR20" s="1" t="s">
+      <c r="AEA20" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="ACS20" s="1" t="s">
+      <c r="AEB20" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="ACT20" s="1" t="s">
+      <c r="AEC20" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="ACU20" s="1" t="s">
+      <c r="AED20" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="ACV20" s="1" t="s">
+      <c r="AEE20" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="ACW20" s="1" t="s">
+      <c r="AEF20" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="ACX20" s="1" t="s">
+      <c r="AEG20" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="ACY20" s="1" t="s">
+      <c r="AEH20" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="ACZ20" s="1" t="s">
+      <c r="AEI20" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="ADA20" s="1" t="s">
+      <c r="AEJ20" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="ADB20" s="1" t="s">
+      <c r="AEK20" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="ADC20" s="1" t="s">
+      <c r="AEL20" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="ADD20" s="1" t="s">
+      <c r="AEM20" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="ADE20" s="1" t="s">
+      <c r="AEN20" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="ADF20" s="1" t="s">
+      <c r="AEO20" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="ADG20" s="1" t="s">
+      <c r="AEP20" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="ADH20" s="1" t="s">
+      <c r="AEQ20" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="ADI20" s="1" t="s">
+      <c r="AER20" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="ADJ20" s="1" t="s">
+      <c r="AES20" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="ADK20" s="1" t="s">
+      <c r="AET20" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="ADL20" s="1" t="s">
+      <c r="AEU20" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="ADM20" s="1" t="s">
+      <c r="AEV20" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="ADN20" s="1" t="s">
+      <c r="AEW20" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="ADO20" s="1" t="s">
+      <c r="AEX20" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="ADP20" s="1" t="s">
+      <c r="AEY20" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="ADQ20" s="1" t="s">
+      <c r="AEZ20" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="ADR20" s="1" t="s">
+      <c r="AFA20" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="ADS20" s="1" t="s">
+      <c r="AFB20" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="ADT20" s="1" t="s">
+      <c r="AFC20" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="ADU20" s="1" t="s">
+      <c r="AFD20" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="ADV20" s="1" t="s">
+      <c r="AFE20" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="ADW20" s="1" t="s">
+      <c r="AFF20" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="ADX20" s="1" t="s">
+      <c r="AFG20" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="ADY20" s="1" t="s">
+      <c r="AFH20" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="ADZ20" s="1" t="s">
+      <c r="AFI20" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="AEA20" s="1" t="s">
+      <c r="AFJ20" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="AEB20" s="1" t="s">
+      <c r="AFK20" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="AEC20" s="1" t="s">
+      <c r="AFL20" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="AED20" s="1" t="s">
+      <c r="AFM20" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="AEE20" s="1" t="s">
+      <c r="AFN20" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="AEF20" s="1" t="s">
+      <c r="AFO20" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="AEG20" s="1" t="s">
+      <c r="AFP20" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="AEH20" s="1" t="s">
+      <c r="AFQ20" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="AEI20" s="1" t="s">
+      <c r="AFR20" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="AEJ20" s="1" t="s">
+      <c r="AFS20" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="AEK20" s="1" t="s">
+      <c r="AFT20" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="AEL20" s="1" t="s">
+      <c r="AFU20" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="AEM20" s="1" t="s">
+      <c r="AFV20" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="AEN20" s="1" t="s">
+      <c r="AFW20" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="AEO20" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="AEP20" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="AEQ20" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="AER20" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="AES20" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="AET20" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="AEU20" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="AEV20" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="AEW20" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="AEX20" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="AEY20" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="AEZ20" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="AFA20" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="AFB20" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="AFC20" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="AFD20" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="AFE20" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="AFF20" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="AFG20" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="AFH20" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="AFI20" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="AFJ20" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="AFK20" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="AFL20" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="AFM20" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="AFN20" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="AFO20" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="AFP20" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="AFQ20" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="AFR20" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="AFS20" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="AFT20" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="AFU20" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="AFV20" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="AFW20" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="21" spans="1:855" x14ac:dyDescent="0.2">
